--- a/public/pre-inscripciones.xlsx
+++ b/public/pre-inscripciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>CODIGO</t>
   </si>
@@ -155,16 +155,25 @@
     <t>NIVEL</t>
   </si>
   <si>
+    <t xml:space="preserve">123412342134 </t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
     <t>DONALD TRUMP</t>
   </si>
   <si>
     <t xml:space="preserve">  DONALD TRUMP</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>NINGUNO</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>TARIJA</t>
+  </si>
+  <si>
+    <t>ARCE</t>
   </si>
   <si>
     <t>2022-11-11</t>
@@ -1058,38 +1067,41 @@
       <c r="A2" s="1">
         <v>492430</v>
       </c>
-      <c r="B2">
-        <v>123412342134</v>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AC2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AD2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AF2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AJ2">
         <v>1234234</v>

--- a/public/pre-inscripciones.xlsx
+++ b/public/pre-inscripciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>CODIGO</t>
   </si>
@@ -155,40 +155,106 @@
     <t>NIVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">123412342134 </t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>DONALD TRUMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DONALD TRUMP</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>TARIJA</t>
-  </si>
-  <si>
-    <t>ARCE</t>
-  </si>
-  <si>
-    <t>2022-11-11</t>
-  </si>
-  <si>
-    <t>NO PERTENECE</t>
-  </si>
-  <si>
-    <t>1 A 2 VECES</t>
+    <t xml:space="preserve">807306642010861 </t>
+  </si>
+  <si>
+    <t>viestrugo@est.lasalle.edu.bo</t>
+  </si>
+  <si>
+    <t>ESTRUGO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>VALERIA ISABEL</t>
+  </si>
+  <si>
+    <t>ESTRUGO PEREZ VALERIA ISABEL</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>BOLIVIA</t>
+  </si>
+  <si>
+    <t>LA PAZ</t>
+  </si>
+  <si>
+    <t>MURILLO</t>
+  </si>
+  <si>
+    <t>NUESTRA SEÑORA DE LA PAZ</t>
+  </si>
+  <si>
+    <t>2006-03-12</t>
+  </si>
+  <si>
+    <t>3-2006</t>
+  </si>
+  <si>
+    <t>CAPITAL (LA PAZ)</t>
+  </si>
+  <si>
+    <t>MIRAFLORES</t>
+  </si>
+  <si>
+    <t>JUAN DE VARGAS</t>
+  </si>
+  <si>
+    <t>MESTIZO</t>
+  </si>
+  <si>
+    <t>1 a 2 veces</t>
   </si>
   <si>
     <t>A PIE</t>
   </si>
   <si>
-    <t>&lt; A 1/2 HORA</t>
+    <t>&lt; a 1/2 hora</t>
+  </si>
+  <si>
+    <t>EMERSON ALBERTO</t>
+  </si>
+  <si>
+    <t>ALCAZAR</t>
+  </si>
+  <si>
+    <t>CASTELLANO</t>
+  </si>
+  <si>
+    <t>ARQUITECTO</t>
+  </si>
+  <si>
+    <t>UNIVERSITARIO</t>
+  </si>
+  <si>
+    <t>emest@hotmail.com</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>CINTHYA MABEL</t>
+  </si>
+  <si>
+    <t>ZUBIETA</t>
+  </si>
+  <si>
+    <t>mabel_perezzu@hotmail.com</t>
+  </si>
+  <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>S5A</t>
+  </si>
+  <si>
+    <t>Mañana</t>
+  </si>
+  <si>
+    <t>Secundaria</t>
   </si>
 </sst>
 </file>
@@ -1065,46 +1131,178 @@
     </row>
     <row r="2" spans="1:67" customHeight="1" ht="12.8">
       <c r="A2" s="1">
-        <v>492430</v>
+        <v>242405</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2">
+        <v>10911928</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
       <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2">
+        <v>210022</v>
+      </c>
+      <c r="S2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2">
+        <v>46</v>
+      </c>
+      <c r="U2">
+        <v>46</v>
+      </c>
+      <c r="W2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2">
+        <v>2259</v>
+      </c>
+      <c r="AB2">
+        <v>2243280</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2">
+        <v>-1</v>
+      </c>
+      <c r="AH2">
+        <v>80730715</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2">
+        <v>3391409</v>
+      </c>
+      <c r="AK2">
+        <v>2365</v>
+      </c>
+      <c r="AL2">
+        <v>3423832</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="AP2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2">
+        <v>76243445</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY2">
+        <v>2366</v>
+      </c>
+      <c r="AZ2">
+        <v>3391409</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2">
-        <v>1234234</v>
+      <c r="BD2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI2">
+        <v>2243280</v>
+      </c>
+      <c r="BJ2">
+        <v>70517521</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:67" customHeight="1" ht="12.8"/>

--- a/public/pre-inscripciones.xlsx
+++ b/public/pre-inscripciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>CODIGO</t>
   </si>
@@ -155,106 +155,43 @@
     <t>NIVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">807306642010861 </t>
-  </si>
-  <si>
-    <t>viestrugo@est.lasalle.edu.bo</t>
-  </si>
-  <si>
-    <t>ESTRUGO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>VALERIA ISABEL</t>
-  </si>
-  <si>
-    <t>ESTRUGO PEREZ VALERIA ISABEL</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>BOLIVIA</t>
-  </si>
-  <si>
-    <t>LA PAZ</t>
-  </si>
-  <si>
-    <t>MURILLO</t>
-  </si>
-  <si>
-    <t>NUESTRA SEÑORA DE LA PAZ</t>
-  </si>
-  <si>
-    <t>2006-03-12</t>
-  </si>
-  <si>
-    <t>3-2006</t>
-  </si>
-  <si>
-    <t>CAPITAL (LA PAZ)</t>
-  </si>
-  <si>
-    <t>MIRAFLORES</t>
-  </si>
-  <si>
-    <t>JUAN DE VARGAS</t>
-  </si>
-  <si>
-    <t>MESTIZO</t>
-  </si>
-  <si>
-    <t>1 a 2 veces</t>
+    <t xml:space="preserve">123412342134 </t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>DONALD TRUMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DONALD TRUMP</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>TARIJA</t>
+  </si>
+  <si>
+    <t>ARCE</t>
+  </si>
+  <si>
+    <t>2022-11-11</t>
+  </si>
+  <si>
+    <t>NO PERTENECE</t>
+  </si>
+  <si>
+    <t>1 A 2 VECES</t>
   </si>
   <si>
     <t>A PIE</t>
   </si>
   <si>
-    <t>&lt; a 1/2 hora</t>
-  </si>
-  <si>
-    <t>EMERSON ALBERTO</t>
-  </si>
-  <si>
-    <t>ALCAZAR</t>
-  </si>
-  <si>
-    <t>CASTELLANO</t>
-  </si>
-  <si>
-    <t>ARQUITECTO</t>
-  </si>
-  <si>
-    <t>UNIVERSITARIO</t>
-  </si>
-  <si>
-    <t>emest@hotmail.com</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>CINTHYA MABEL</t>
-  </si>
-  <si>
-    <t>ZUBIETA</t>
-  </si>
-  <si>
-    <t>mabel_perezzu@hotmail.com</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>S5A</t>
-  </si>
-  <si>
-    <t>Mañana</t>
-  </si>
-  <si>
-    <t>Secundaria</t>
+    <t>&lt; A 1/2 HORA</t>
+  </si>
+  <si>
+    <t>Si</t>
   </si>
 </sst>
 </file>
@@ -1131,178 +1068,49 @@
     </row>
     <row r="2" spans="1:67" customHeight="1" ht="12.8">
       <c r="A2" s="1">
-        <v>242405</v>
+        <v>492430</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="C2">
-        <v>10911928</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>50</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AC2" t="s">
         <v>54</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AD2" t="s">
         <v>55</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AE2" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AF2" t="s">
         <v>57</v>
       </c>
-      <c r="R2">
-        <v>210022</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="AJ2">
+        <v>1234234</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="T2">
-        <v>46</v>
-      </c>
-      <c r="U2">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2">
-        <v>2259</v>
-      </c>
-      <c r="AB2">
-        <v>2243280</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2">
-        <v>-1</v>
-      </c>
-      <c r="AH2">
-        <v>80730715</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ2">
-        <v>3391409</v>
-      </c>
-      <c r="AK2">
-        <v>2365</v>
-      </c>
-      <c r="AL2">
-        <v>3423832</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU2">
-        <v>76243445</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY2">
-        <v>2366</v>
-      </c>
-      <c r="AZ2">
-        <v>3391409</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI2">
-        <v>2243280</v>
-      </c>
-      <c r="BJ2">
-        <v>70517521</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:67" customHeight="1" ht="12.8"/>
